--- a/capture/result.xlsx
+++ b/capture/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.CG_project\00.VulkanTutorial\capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEBD909-7CF0-42B6-AEA5-C1915DA72B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A89CF50-498B-4AE8-9BFD-A86D9ABE3322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9317" yWindow="754" windowWidth="23683" windowHeight="16252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9231" yWindow="754" windowWidth="23683" windowHeight="16252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example0" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,7 +55,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>angleID=2；wlwwID=0</t>
+    <t>angleID=0；wlwwID=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angleID=1；wlwwID=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,29 +392,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.35546875" customWidth="1"/>
+    <col min="3" max="3" width="7.78515625" customWidth="1"/>
     <col min="4" max="4" width="8.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -416,8 +425,11 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -430,8 +442,11 @@
       <c r="D3">
         <v>2.5452062487602199E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -444,8 +459,11 @@
       <c r="D4">
         <v>1.8340189009904799E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -458,8 +476,11 @@
       <c r="D5">
         <v>4.3787758797407102E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -472,10 +493,105 @@
       <c r="D6">
         <v>8.8492063805460895E-3</v>
       </c>
+      <c r="E6">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>33.261619281916602</v>
+      </c>
+      <c r="C10">
+        <v>0.98284657736424696</v>
+      </c>
+      <c r="D10">
+        <v>2.2575849667191498E-2</v>
+      </c>
+      <c r="E10">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>35.740954919414101</v>
+      </c>
+      <c r="C11">
+        <v>0.98617500224092203</v>
+      </c>
+      <c r="D11">
+        <v>1.8246924504637701E-2</v>
+      </c>
+      <c r="E11">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>29.9291252633558</v>
+      </c>
+      <c r="C12">
+        <v>0.96703894533749901</v>
+      </c>
+      <c r="D12">
+        <v>4.9889259040355599E-2</v>
+      </c>
+      <c r="E12">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>37.308174481941002</v>
+      </c>
+      <c r="C13">
+        <v>0.98919482221120003</v>
+      </c>
+      <c r="D13">
+        <v>1.3930621556937599E-2</v>
+      </c>
+      <c r="E13">
+        <v>54.6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/capture/result.xlsx
+++ b/capture/result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.CG_project\00.VulkanTutorial\capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A89CF50-498B-4AE8-9BFD-A86D9ABE3322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA888BE-24AF-4CC3-A2C6-2082C07095AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9231" yWindow="754" windowWidth="23683" windowHeight="16252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8597" yWindow="111" windowWidth="23683" windowHeight="16252" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example0" sheetId="1" r:id="rId1"/>
+    <sheet name="example1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +65,13 @@
   </si>
   <si>
     <t>angleID=1；wlwwID=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepLength</t>
+  </si>
+  <si>
+    <t>stepLength</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +89,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -107,9 +123,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -392,206 +414,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.78515625" customWidth="1"/>
-    <col min="4" max="4" width="8.2109375" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.78515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.2109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>33.261619281916602</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.98284657736424696</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.2575849667191498E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>35.740954919414101</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.98617500224092203</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.8246924504637701E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>29.9291252633558</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.96703894533749901</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.9889259040355599E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>37.308174481941002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.98919482221120003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.3930621556937599E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B11" s="1">
         <v>33.979271483615904</v>
       </c>
-      <c r="C3">
+      <c r="C11" s="1">
         <v>0.985740079486218</v>
       </c>
-      <c r="D3">
+      <c r="D11" s="1">
         <v>2.5452062487602199E-2</v>
       </c>
-      <c r="E3">
+      <c r="E11" s="1">
         <v>55.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="F11" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B12" s="1">
         <v>35.778928883101599</v>
       </c>
-      <c r="C4">
+      <c r="C12" s="1">
         <v>0.98927384956383002</v>
       </c>
-      <c r="D4">
+      <c r="D12" s="1">
         <v>1.8340189009904799E-2</v>
       </c>
-      <c r="E4">
+      <c r="E12" s="1">
         <v>52.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="F12" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B13" s="1">
         <v>31.455664399245499</v>
       </c>
-      <c r="C5">
+      <c r="C13" s="1">
         <v>0.97705976761239699</v>
       </c>
-      <c r="D5">
+      <c r="D13" s="1">
         <v>4.3787758797407102E-2</v>
       </c>
-      <c r="E5">
+      <c r="E13" s="1">
         <v>57.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="F13" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B14" s="1">
         <v>39.6043764978726</v>
       </c>
-      <c r="C6">
+      <c r="C14" s="1">
         <v>0.99437437662020001</v>
       </c>
-      <c r="D6">
+      <c r="D14" s="1">
         <v>8.8492063805460895E-3</v>
       </c>
-      <c r="E6">
+      <c r="E14" s="1">
         <v>54.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>33.261619281916602</v>
-      </c>
-      <c r="C10">
-        <v>0.98284657736424696</v>
-      </c>
-      <c r="D10">
-        <v>2.2575849667191498E-2</v>
-      </c>
-      <c r="E10">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>35.740954919414101</v>
-      </c>
-      <c r="C11">
-        <v>0.98617500224092203</v>
-      </c>
-      <c r="D11">
-        <v>1.8246924504637701E-2</v>
-      </c>
-      <c r="E11">
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>29.9291252633558</v>
-      </c>
-      <c r="C12">
-        <v>0.96703894533749901</v>
-      </c>
-      <c r="D12">
-        <v>4.9889259040355599E-2</v>
-      </c>
-      <c r="E12">
-        <v>58.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>37.308174481941002</v>
-      </c>
-      <c r="C13">
-        <v>0.98919482221120003</v>
-      </c>
-      <c r="D13">
-        <v>1.3930621556937599E-2</v>
-      </c>
-      <c r="E13">
-        <v>54.6</v>
+      <c r="F14" s="1">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03138617-1860-46F4-87D2-AEF8FCD61F8C}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.2109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="7.92578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39.317519362149298</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.99338659258028295</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7.4156634509563403E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>38.935848432534499</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.98675959715110995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.6079621389508199E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>37.892276605879402</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99308647774723702</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.7827787026762902E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>39.072729582087298</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.987277847642961</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.54435262084007E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40.561899686120299</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.99456243761057395</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.9690871275961399E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>41.172265312810502</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.99084016737814995</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.1134940199553901E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41.6536352387226</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99548029292093299</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.3834998980164502E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>41.646261739372001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.99143520245956795</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.03211551904678E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>62.1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/capture/result.xlsx
+++ b/capture/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.CG_project\00.VulkanTutorial\capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA888BE-24AF-4CC3-A2C6-2082C07095AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D9FF08-A765-411A-AF7A-7B6A2FA6B422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8597" yWindow="111" windowWidth="23683" windowHeight="16252" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13440" yWindow="643" windowWidth="23683" windowHeight="16251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example0" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>stepLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GaussianTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>754ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highResIntensity_SplitGaussianVtk3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highResIntensity_SplitGaussianVtk10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>177ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +157,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,34 +444,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.78515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.2109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +488,11 @@
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -478,7 +512,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -498,7 +532,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -518,7 +552,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -538,17 +572,17 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +598,11 @@
       <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -584,8 +621,11 @@
       <c r="F11" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -604,8 +644,9 @@
       <c r="F12" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -624,19 +665,20 @@
       <c r="F13" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1">
-        <v>39.6043764978726</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.99437437662020001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8.8492063805460895E-3</v>
+      <c r="B14" s="2">
+        <v>38.783687822940799</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.993881433897012</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9.4838924705982208E-3</v>
       </c>
       <c r="E14" s="1">
         <v>54.7</v>
@@ -644,11 +686,59 @@
       <c r="F14" s="1">
         <v>1E-3</v>
       </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>37.568415047287303</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.99329339291373098</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.0103845037519901E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>57.7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>37.569688820831402</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.993294627664424</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.0104192420840199E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G11:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -660,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03138617-1860-46F4-87D2-AEF8FCD61F8C}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -674,14 +764,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -781,14 +871,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">

--- a/capture/result.xlsx
+++ b/capture/result.xlsx
@@ -8,25 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.CG_project\00.VulkanTutorial\capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D9FF08-A765-411A-AF7A-7B6A2FA6B422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B3D19-4AD8-4664-B448-AB5D2831E813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="643" windowWidth="23683" windowHeight="16251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example0" sheetId="1" r:id="rId1"/>
     <sheet name="example1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +105,58 @@
   </si>
   <si>
     <t>177ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wlwwID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.8ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68.5ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,6 +164,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,7 +226,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,35 +514,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.78515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="10" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="10.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,8 +566,35 @@
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -511,8 +613,23 @@
       <c r="F3" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -531,8 +648,15 @@
       <c r="F4" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -551,8 +675,17 @@
       <c r="F5" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -571,18 +704,96 @@
       <c r="F6" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7">
+        <v>29.9291252633558</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.96703894533749901</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4.9889259040355599E-2</v>
+      </c>
+      <c r="O7" s="7">
+        <v>58.6</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="7">
+        <v>30.437447814024502</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.965940753481069</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5.1327038556337301E-2</v>
+      </c>
+      <c r="O8" s="7">
+        <v>62.3</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="7">
+        <v>31.455664399245499</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.97705976761239699</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4.3787758797407102E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <v>57.8</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,8 +812,27 @@
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="7">
+        <v>34.1406699457863</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.97943127015672105</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3.6440260708331999E-2</v>
+      </c>
+      <c r="O10" s="7">
+        <v>60.8</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -621,11 +851,38 @@
       <c r="F11" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7">
+        <v>38.275011289582402</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.99001734199981695</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1.3315599411725901E-2</v>
+      </c>
+      <c r="O11" s="7">
+        <v>58</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -644,9 +901,28 @@
       <c r="F12" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="7">
+        <v>40.4725996630822</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.99357442950266495</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1.2833422981202601E-2</v>
+      </c>
+      <c r="O12" s="7">
+        <v>57</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,9 +941,30 @@
       <c r="F13" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="7">
+        <v>38.621167661648201</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.99317163162330102</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1.0499037802219301E-2</v>
+      </c>
+      <c r="O13" s="7">
+        <v>57.7</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -686,9 +983,28 @@
       <c r="F14" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="7">
+        <v>41.131332833318297</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.99540673034321103</v>
+      </c>
+      <c r="N14" s="7">
+        <v>9.5374379307031597E-3</v>
+      </c>
+      <c r="O14" s="7">
+        <v>57.6</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -711,7 +1027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -735,10 +1051,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="18">
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G11:G14"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -751,7 +1082,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -764,14 +1095,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -871,14 +1202,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">

--- a/capture/result.xlsx
+++ b/capture/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.CG_project\00.VulkanTutorial\capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B3D19-4AD8-4664-B448-AB5D2831E813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4123CA-9555-4F26-A55D-D25D7D8D6346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example0" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="37">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,30 @@
   </si>
   <si>
     <t>68.5ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours128_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours256_acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,8 +188,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -211,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,8 +256,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:O14"/>
+    <sheetView topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -538,14 +581,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -613,19 +656,19 @@
       <c r="F3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="8">
         <v>1E-3</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -648,13 +691,13 @@
       <c r="F4" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -675,15 +718,15 @@
       <c r="F5" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -704,19 +747,19 @@
       <c r="F6" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -731,19 +774,19 @@
       <c r="N7" s="7">
         <v>4.9889259040355599E-2</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="12">
         <v>58.6</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="8">
         <v>1E-3</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="4" t="s">
         <v>28</v>
       </c>
@@ -756,23 +799,23 @@
       <c r="N8" s="7">
         <v>5.1327038556337301E-2</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="12">
         <v>62.3</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -787,11 +830,11 @@
       <c r="N9" s="7">
         <v>4.3787758797407102E-2</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="12">
         <v>57.8</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -812,8 +855,8 @@
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="4" t="s">
         <v>28</v>
       </c>
@@ -826,11 +869,11 @@
       <c r="N10" s="7">
         <v>3.6440260708331999E-2</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="12">
         <v>60.8</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -851,13 +894,13 @@
       <c r="F11" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -872,13 +915,13 @@
       <c r="N11" s="7">
         <v>1.3315599411725901E-2</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="12">
         <v>58</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="8">
         <v>1E-3</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -901,9 +944,9 @@
       <c r="F12" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="4" t="s">
         <v>28</v>
       </c>
@@ -916,11 +959,11 @@
       <c r="N12" s="7">
         <v>1.2833422981202601E-2</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="12">
         <v>57</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -941,9 +984,9 @@
       <c r="F13" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
+      <c r="G13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -958,11 +1001,11 @@
       <c r="N13" s="7">
         <v>1.0499037802219301E-2</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="12">
         <v>57.7</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -983,9 +1026,9 @@
       <c r="F14" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="1" t="s">
         <v>28</v>
       </c>
@@ -998,11 +1041,11 @@
       <c r="N14" s="7">
         <v>9.5374379307031597E-3</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="12">
         <v>57.6</v>
       </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -1052,6 +1095,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="Q3:Q6"/>
     <mergeCell ref="P3:P6"/>
@@ -1064,12 +1113,6 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1079,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03138617-1860-46F4-87D2-AEF8FCD61F8C}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1091,20 +1134,24 @@
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="7.92578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.2109375" style="1" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="11.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1140,8 +1187,17 @@
       <c r="F3" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1160,8 +1216,17 @@
       <c r="F4" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1180,8 +1245,17 @@
       <c r="F5" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1200,18 +1274,120 @@
       <c r="F6" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="10">
+        <v>39.072729582087298</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0.987277847642961</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1.54435262084007E-2</v>
+      </c>
+      <c r="N7" s="13">
+        <v>50.3</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="P7" s="11">
+        <v>753.56700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7">
+        <v>42.133912448552699</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.99497860225030499</v>
+      </c>
+      <c r="M8" s="7">
+        <v>5.4859998635947704E-3</v>
+      </c>
+      <c r="N8" s="12">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="O8" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="10">
+        <v>42.057937981030598</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0.99099577473650402</v>
+      </c>
+      <c r="M9" s="10">
+        <v>1.13553646951913E-2</v>
+      </c>
+      <c r="N9" s="13">
+        <v>50.6</v>
+      </c>
+      <c r="O9" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,8 +1403,29 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="10">
+        <v>41.588577510507797</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.99420618320651799</v>
+      </c>
+      <c r="M10" s="10">
+        <v>4.9259667284786701E-3</v>
+      </c>
+      <c r="N10" s="13">
+        <v>63.3</v>
+      </c>
+      <c r="O10" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1247,8 +1444,35 @@
       <c r="F11" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="10">
+        <v>36.524731233276299</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.986491280376387</v>
+      </c>
+      <c r="M11" s="10">
+        <v>1.69725492596626E-2</v>
+      </c>
+      <c r="N11" s="13">
+        <v>284.5</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="P11" s="11">
+        <v>3.6429999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1267,8 +1491,29 @@
       <c r="F12" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="10">
+        <v>43.947627323477299</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0.99599025364175098</v>
+      </c>
+      <c r="M12" s="10">
+        <v>5.0963284447789097E-3</v>
+      </c>
+      <c r="N12" s="13">
+        <v>124.3</v>
+      </c>
+      <c r="O12" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1287,8 +1532,31 @@
       <c r="F13" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="10">
+        <v>40.4474745728009</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.99116557723691101</v>
+      </c>
+      <c r="M13" s="10">
+        <v>1.1585965752601599E-2</v>
+      </c>
+      <c r="N13" s="13">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="O13" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1307,9 +1575,281 @@
       <c r="F14" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="10">
+        <v>44.040907257051302</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0.99601037277902205</v>
+      </c>
+      <c r="M14" s="10">
+        <v>3.7524178624153098E-3</v>
+      </c>
+      <c r="N14" s="13">
+        <v>80.8</v>
+      </c>
+      <c r="O14" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="10">
+        <v>36.831354974862201</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0.99134471693664805</v>
+      </c>
+      <c r="M15" s="10">
+        <v>9.7609050571918401E-3</v>
+      </c>
+      <c r="N15" s="13">
+        <v>71.5</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="10">
+        <v>44.184196019377602</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0.99727072586752796</v>
+      </c>
+      <c r="M16" s="10">
+        <v>3.5654597450047701E-3</v>
+      </c>
+      <c r="N16" s="13">
+        <v>52.6</v>
+      </c>
+      <c r="O16" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.35">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="10">
+        <v>40.731085906271502</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0.99452825864093597</v>
+      </c>
+      <c r="M17" s="10">
+        <v>6.9966427981853398E-3</v>
+      </c>
+      <c r="N17" s="13">
+        <v>58.1</v>
+      </c>
+      <c r="O17" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="8:18" x14ac:dyDescent="0.35">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="10">
+        <v>44.307886999995901</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0.99709542027913101</v>
+      </c>
+      <c r="M18" s="10">
+        <v>3.0767088755965198E-3</v>
+      </c>
+      <c r="N18" s="13">
+        <v>44.7</v>
+      </c>
+      <c r="O18" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.35">
+      <c r="H19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="13">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="P19" s="10">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="20" spans="8:18" x14ac:dyDescent="0.35">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="8:18" x14ac:dyDescent="0.35">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.35">
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.35">
+      <c r="H23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10">
+        <v>69.3</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P23" s="10">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="24" spans="8:18" x14ac:dyDescent="0.35">
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="8:18" x14ac:dyDescent="0.35">
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="8:18" x14ac:dyDescent="0.35">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="8:18" x14ac:dyDescent="0.35">
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="8:18" x14ac:dyDescent="0.35">
+      <c r="R28" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="19">
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="P11:P18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A9:F9"/>
   </mergeCells>

--- a/capture/result.xlsx
+++ b/capture/result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.CG_project\00.VulkanTutorial\capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4123CA-9555-4F26-A55D-D25D7D8D6346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D0256C-D8F8-431C-B494-FA83117EC299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example0" sheetId="1" r:id="rId1"/>
     <sheet name="example1" sheetId="2" r:id="rId2"/>
+    <sheet name="allExample" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +182,42 @@
   </si>
   <si>
     <t>Ours256_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x*y*z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log(x*y*z)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hope res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real  res</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +227,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -236,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,19 +299,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,14 +624,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -656,19 +699,19 @@
       <c r="F3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="13">
         <v>1E-3</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -691,13 +734,13 @@
       <c r="F4" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -718,15 +761,15 @@
       <c r="F5" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -747,19 +790,19 @@
       <c r="F6" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -774,19 +817,19 @@
       <c r="N7" s="7">
         <v>4.9889259040355599E-2</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="10">
         <v>58.6</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="13">
         <v>1E-3</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="4" t="s">
         <v>28</v>
       </c>
@@ -799,23 +842,23 @@
       <c r="N8" s="7">
         <v>5.1327038556337301E-2</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="10">
         <v>62.3</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -830,11 +873,11 @@
       <c r="N9" s="7">
         <v>4.3787758797407102E-2</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="10">
         <v>57.8</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -855,8 +898,8 @@
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="4" t="s">
         <v>28</v>
       </c>
@@ -869,11 +912,11 @@
       <c r="N10" s="7">
         <v>3.6440260708331999E-2</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="10">
         <v>60.8</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -894,13 +937,13 @@
       <c r="F11" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -915,13 +958,13 @@
       <c r="N11" s="7">
         <v>1.3315599411725901E-2</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="10">
         <v>58</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="13">
         <v>1E-3</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -944,9 +987,9 @@
       <c r="F12" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="4" t="s">
         <v>28</v>
       </c>
@@ -959,11 +1002,11 @@
       <c r="N12" s="7">
         <v>1.2833422981202601E-2</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="10">
         <v>57</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -984,9 +1027,9 @@
       <c r="F13" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
+      <c r="G13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -1001,11 +1044,11 @@
       <c r="N13" s="7">
         <v>1.0499037802219301E-2</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="10">
         <v>57.7</v>
       </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1026,9 +1069,9 @@
       <c r="F14" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="G14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1041,11 +1084,11 @@
       <c r="N14" s="7">
         <v>9.5374379307031597E-3</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="10">
         <v>57.6</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -1095,12 +1138,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="Q3:Q6"/>
     <mergeCell ref="P3:P6"/>
@@ -1113,6 +1150,12 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1124,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03138617-1860-46F4-87D2-AEF8FCD61F8C}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1142,14 +1185,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -1303,37 +1346,37 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="13" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>39.072729582087298</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>0.987277847642961</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>1.54435262084007E-2</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <v>50.3</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>0.01</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="14">
         <v>753.56700000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1346,46 +1389,46 @@
       <c r="M8" s="7">
         <v>5.4859998635947704E-3</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <v>64.900000000000006</v>
       </c>
       <c r="O8" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P8" s="11"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>42.057937981030598</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>0.99099577473650402</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>1.13553646951913E-2</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="11">
         <v>50.6</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="P9" s="11"/>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -1403,27 +1446,27 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>41.588577510507797</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>0.99420618320651799</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>4.9259667284786701E-3</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <v>63.3</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>2E-3</v>
       </c>
-      <c r="P10" s="11"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1444,31 +1487,31 @@
       <c r="F11" s="1">
         <v>2E-3</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="13" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>36.524731233276299</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>0.986491280376387</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>1.69725492596626E-2</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="11">
         <v>284.5</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>0.01</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="14">
         <v>3.6429999999999998</v>
       </c>
     </row>
@@ -1491,27 +1534,27 @@
       <c r="F12" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>43.947627323477299</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>0.99599025364175098</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>5.0963284447789097E-3</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="11">
         <v>124.3</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P12" s="11"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -1532,29 +1575,29 @@
       <c r="F13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13" t="s">
         <v>32</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>40.4474745728009</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <v>0.99116557723691101</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <v>1.1585965752601599E-2</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="11">
         <v>163.80000000000001</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="P13" s="11"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1575,264 +1618,270 @@
       <c r="F14" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>44.040907257051302</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>0.99601037277902205</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <v>3.7524178624153098E-3</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="11">
         <v>80.8</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <v>2E-3</v>
       </c>
-      <c r="P14" s="11"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="13" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>36.831354974862201</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <v>0.99134471693664805</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>9.7609050571918401E-3</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="11">
         <v>71.5</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <v>0.02</v>
       </c>
-      <c r="P15" s="11"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>44.184196019377602</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <v>0.99727072586752796</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <v>3.5654597450047701E-3</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="11">
         <v>52.6</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="9">
         <v>1E-3</v>
       </c>
-      <c r="P16" s="11"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>40.731085906271502</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <v>0.99452825864093597</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <v>6.9966427981853398E-3</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="11">
         <v>58.1</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="9">
         <v>2E-3</v>
       </c>
-      <c r="P17" s="11"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>44.307886999995901</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <v>0.99709542027913101</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <v>3.0767088755965198E-3</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="11">
         <v>44.7</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <v>1E-3</v>
       </c>
-      <c r="P18" s="11"/>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="13" t="s">
         <v>31</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="13">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="11">
         <v>256.39999999999998</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <v>0.01</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="9">
         <v>11.7</v>
       </c>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13" t="s">
         <v>32</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="13" t="s">
         <v>31</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10">
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9">
         <v>69.3</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="9">
         <v>0.02</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="9">
         <v>3.49</v>
       </c>
     </row>
     <row r="24" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
     </row>
     <row r="25" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13" t="s">
         <v>32</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="R25" s="10"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="R25" s="9"/>
     </row>
     <row r="26" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="R26" s="10"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="R26" s="9"/>
     </row>
     <row r="27" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="R27" s="10"/>
+      <c r="R27" s="9"/>
     </row>
     <row r="28" spans="8:18" x14ac:dyDescent="0.35">
       <c r="R28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="H23:H26"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="I25:I26"/>
@@ -1846,12 +1895,546 @@
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EE7F5E-EB03-402A-8881-B9972622EF95}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="10" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="8" customWidth="1"/>
+    <col min="9" max="13" width="9.140625" style="8"/>
+    <col min="14" max="14" width="13.640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="11" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8">
+        <v>50.9</v>
+      </c>
+      <c r="G2" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H2" s="8">
+        <v>37.658000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8">
+        <v>43.8</v>
+      </c>
+      <c r="G3" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H3" s="8">
+        <v>26.146999999999998</v>
+      </c>
+      <c r="I3" s="8">
+        <v>512</v>
+      </c>
+      <c r="J3" s="8">
+        <v>512</v>
+      </c>
+      <c r="K3" s="8">
+        <v>512</v>
+      </c>
+      <c r="L3" s="8">
+        <v>41</v>
+      </c>
+      <c r="M3" s="8">
+        <f>2^ROUNDUP(LOG((J3+K3+L3)/3,2),0)</f>
+        <v>512</v>
+      </c>
+      <c r="N3" s="8">
+        <f>J3*K3*L3</f>
+        <v>10747904</v>
+      </c>
+      <c r="O3" s="8">
+        <f>LOG(N3,2)</f>
+        <v>23.357552004618082</v>
+      </c>
+      <c r="P3" s="8">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8">
+        <v>42.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>555.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8">
+        <v>50.7</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="I5" s="8">
+        <v>128</v>
+      </c>
+      <c r="J5" s="8">
+        <v>512</v>
+      </c>
+      <c r="K5" s="8">
+        <v>512</v>
+      </c>
+      <c r="L5" s="8">
+        <v>512</v>
+      </c>
+      <c r="M5" s="8">
+        <f>2^ROUNDUP(LOG((J5+K5+L5)/3,2),0)</f>
+        <v>512</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:N17" si="0">J5*K5*L5</f>
+        <v>134217728</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" ref="O5:O17" si="1">LOG(N5,2)</f>
+        <v>27</v>
+      </c>
+      <c r="P5" s="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8">
+        <v>47.4</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5.4850000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44.1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="I7" s="8">
+        <v>256</v>
+      </c>
+      <c r="J7" s="8">
+        <v>192</v>
+      </c>
+      <c r="K7" s="8">
+        <v>192</v>
+      </c>
+      <c r="L7" s="8">
+        <v>47</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" ref="M7:M17" si="2">2^ROUNDUP(LOG((J7+K7+L7)/3,2),0)</f>
+        <v>256</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="0"/>
+        <v>1732608</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="1"/>
+        <v>20.724513853119952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8">
+        <v>63.2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>336.90899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8">
+        <v>59.5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H9" s="8">
+        <v>123.229</v>
+      </c>
+      <c r="I9" s="8">
+        <v>512</v>
+      </c>
+      <c r="J9" s="8">
+        <v>250</v>
+      </c>
+      <c r="K9" s="8">
+        <v>250</v>
+      </c>
+      <c r="L9" s="8">
+        <v>756</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="0"/>
+        <v>47250000</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="1"/>
+        <v>25.493810993545249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8">
+        <v>49.3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>10.224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8">
+        <v>46.3</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H11" s="8">
+        <v>4.5069999999999997</v>
+      </c>
+      <c r="I11" s="8">
+        <v>256</v>
+      </c>
+      <c r="J11" s="8">
+        <v>256</v>
+      </c>
+      <c r="K11" s="8">
+        <v>256</v>
+      </c>
+      <c r="L11" s="8">
+        <v>44</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="0"/>
+        <v>2883584</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="1"/>
+        <v>21.459431618637296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="8">
+        <v>65.8</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H12" s="8">
+        <v>5.0039999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="8">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="G13" s="8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="I13" s="8">
+        <v>128</v>
+      </c>
+      <c r="J13" s="8">
+        <v>103</v>
+      </c>
+      <c r="K13" s="8">
+        <v>94</v>
+      </c>
+      <c r="L13" s="8">
+        <v>161</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="0"/>
+        <v>1558802</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="1"/>
+        <v>20.572006256975474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8">
+        <v>48.9</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="H14" s="8">
+        <v>934.89099999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="8">
+        <v>40.1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>5.0679999999999996</v>
+      </c>
+      <c r="I15" s="8">
+        <v>256</v>
+      </c>
+      <c r="J15" s="8">
+        <v>832</v>
+      </c>
+      <c r="K15" s="8">
+        <v>832</v>
+      </c>
+      <c r="L15" s="8">
+        <v>494</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="0"/>
+        <v>341958656</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="1"/>
+        <v>28.349246667866861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>7</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H16" s="8">
+        <v>374.40199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="8">
+        <v>46.6</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H17" s="8">
+        <v>26.620999999999999</v>
+      </c>
+      <c r="I17" s="8">
+        <v>256</v>
+      </c>
+      <c r="J17" s="8">
+        <v>512</v>
+      </c>
+      <c r="K17" s="8">
+        <v>512</v>
+      </c>
+      <c r="L17" s="8">
+        <v>463</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="0"/>
+        <v>121372672</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="1"/>
+        <v>26.854868383260239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/capture/result.xlsx
+++ b/capture/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.CG_project\00.VulkanTutorial\capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D0256C-D8F8-431C-B494-FA83117EC299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451EC114-9441-4A0C-A145-563FE1FE2395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1907,7 +1907,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>

--- a/capture/result.xlsx
+++ b/capture/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.CG_project\00.VulkanTutorial\capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451EC114-9441-4A0C-A145-563FE1FE2395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9ED3C1-6900-4818-89A4-AAC6AAFDC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="example0" sheetId="1" r:id="rId1"/>
     <sheet name="example1" sheetId="2" r:id="rId2"/>
     <sheet name="allExample" sheetId="3" r:id="rId3"/>
+    <sheet name="attenuation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +219,10 @@
   </si>
   <si>
     <t>real  res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attenuation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,15 +314,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -624,14 +632,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -699,19 +707,19 @@
       <c r="F3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="14">
         <v>1E-3</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -734,13 +742,13 @@
       <c r="F4" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -761,15 +769,15 @@
       <c r="F5" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -790,19 +798,19 @@
       <c r="F6" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -820,16 +828,16 @@
       <c r="O7" s="10">
         <v>58.6</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="14">
         <v>1E-3</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="4" t="s">
         <v>28</v>
       </c>
@@ -845,20 +853,20 @@
       <c r="O8" s="10">
         <v>62.3</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -876,8 +884,8 @@
       <c r="O9" s="10">
         <v>57.8</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -898,8 +906,8 @@
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="4" t="s">
         <v>28</v>
       </c>
@@ -915,8 +923,8 @@
       <c r="O10" s="10">
         <v>60.8</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -937,13 +945,13 @@
       <c r="F11" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -961,10 +969,10 @@
       <c r="O11" s="10">
         <v>58</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="14">
         <v>1E-3</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -987,9 +995,9 @@
       <c r="F12" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1005,8 +1013,8 @@
       <c r="O12" s="10">
         <v>57</v>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -1027,9 +1035,9 @@
       <c r="F13" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13" t="s">
+      <c r="G13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -1047,8 +1055,8 @@
       <c r="O13" s="10">
         <v>57.7</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1069,9 +1077,9 @@
       <c r="F14" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1087,8 +1095,8 @@
       <c r="O14" s="10">
         <v>57.6</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -1138,6 +1146,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="Q3:Q6"/>
     <mergeCell ref="P3:P6"/>
@@ -1150,12 +1164,6 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1168,7 +1176,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1185,14 +1193,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -1346,10 +1354,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1370,13 +1378,13 @@
       <c r="O7" s="9">
         <v>0.01</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="16">
         <v>753.56700000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1395,19 +1403,19 @@
       <c r="O8" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P8" s="14"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -1428,7 +1436,7 @@
       <c r="O9" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="P9" s="14"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -1446,8 +1454,8 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1466,7 +1474,7 @@
       <c r="O10" s="9">
         <v>2E-3</v>
       </c>
-      <c r="P10" s="14"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1487,10 +1495,10 @@
       <c r="F11" s="1">
         <v>2E-3</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -1511,7 +1519,7 @@
       <c r="O11" s="9">
         <v>0.01</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="16">
         <v>3.6429999999999998</v>
       </c>
     </row>
@@ -1534,8 +1542,8 @@
       <c r="F12" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1554,7 +1562,7 @@
       <c r="O12" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P12" s="14"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -1575,8 +1583,8 @@
       <c r="F13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="s">
         <v>32</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -1597,7 +1605,7 @@
       <c r="O13" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="P13" s="14"/>
+      <c r="P13" s="16"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1618,8 +1626,8 @@
       <c r="F14" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1638,13 +1646,13 @@
       <c r="O14" s="9">
         <v>2E-3</v>
       </c>
-      <c r="P14" s="14"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -1665,11 +1673,11 @@
       <c r="O15" s="9">
         <v>0.02</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1688,11 +1696,11 @@
       <c r="O16" s="9">
         <v>1E-3</v>
       </c>
-      <c r="P16" s="14"/>
+      <c r="P16" s="16"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H17" s="13"/>
-      <c r="I17" s="13" t="s">
+      <c r="H17" s="14"/>
+      <c r="I17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -1713,11 +1721,11 @@
       <c r="O17" s="9">
         <v>2E-3</v>
       </c>
-      <c r="P17" s="14"/>
+      <c r="P17" s="16"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="5" t="s">
         <v>27</v>
       </c>
@@ -1736,13 +1744,13 @@
       <c r="O18" s="9">
         <v>1E-3</v>
       </c>
-      <c r="P18" s="14"/>
+      <c r="P18" s="16"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -1762,8 +1770,8 @@
       </c>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="5" t="s">
         <v>27</v>
       </c>
@@ -1775,8 +1783,8 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H21" s="13"/>
-      <c r="I21" s="13" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14" t="s">
         <v>32</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -1790,8 +1798,8 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1803,10 +1811,10 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J23" s="5" t="s">
@@ -1826,8 +1834,8 @@
       </c>
     </row>
     <row r="24" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="5" t="s">
         <v>27</v>
       </c>
@@ -1839,8 +1847,8 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H25" s="13"/>
-      <c r="I25" s="13" t="s">
+      <c r="H25" s="14"/>
+      <c r="I25" s="14" t="s">
         <v>32</v>
       </c>
       <c r="J25" s="5" t="s">
@@ -1855,8 +1863,8 @@
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="5" t="s">
         <v>27</v>
       </c>
@@ -1876,12 +1884,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:F9"/>
     <mergeCell ref="H23:H26"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="I25:I26"/>
@@ -1895,6 +1897,12 @@
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1907,7 +1915,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1940,7 +1948,7 @@
       <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -1972,7 +1980,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1981,7 +1989,7 @@
       <c r="F2" s="8">
         <v>50.9</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="13">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H2" s="8">
@@ -1989,7 +1997,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2031,7 +2039,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2048,7 +2056,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
@@ -2090,7 +2098,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2107,7 +2115,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
@@ -2146,7 +2154,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2163,7 +2171,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
@@ -2202,35 +2210,35 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
+      <c r="A10" s="14">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="8">
-        <v>49.3</v>
+        <v>56.1</v>
       </c>
       <c r="G10" s="8">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H10" s="8">
-        <v>10.224</v>
+        <v>8.6199999999999992</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="8">
-        <v>46.3</v>
+        <v>55.1</v>
       </c>
       <c r="G11" s="8">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H11" s="8">
-        <v>4.5069999999999997</v>
+        <v>4.2450000000000001</v>
       </c>
       <c r="I11" s="8">
         <v>256</v>
@@ -2258,7 +2266,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2275,7 +2283,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
@@ -2314,7 +2322,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="13">
+      <c r="A14" s="14">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2331,7 +2339,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -2370,7 +2378,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
+      <c r="A16" s="14">
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2387,7 +2395,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
@@ -2440,4 +2448,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEF66FA-BA83-4676-A3F1-2DED21B1EBBD}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/capture/result.xlsx
+++ b/capture/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.CG_project\00.VulkanTutorial\capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9ED3C1-6900-4818-89A4-AAC6AAFDC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF2BB1E-2669-4011-831D-A29F1460CE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="example0" sheetId="1" r:id="rId1"/>
     <sheet name="example1" sheetId="2" r:id="rId2"/>
     <sheet name="allExample" sheetId="3" r:id="rId3"/>
-    <sheet name="attenuation" sheetId="4" r:id="rId4"/>
+    <sheet name="falloffFunc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="50">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,7 +222,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attenuation</t>
+    <t>SL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FalloffFunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,11 +242,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="183" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="187" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +272,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,10 +297,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,20 +341,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,7 +673,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -632,14 +694,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -707,19 +769,19 @@
       <c r="F3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="15">
         <v>1E-3</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -742,13 +804,13 @@
       <c r="F4" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -769,15 +831,15 @@
       <c r="F5" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -798,19 +860,19 @@
       <c r="F6" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -828,16 +890,16 @@
       <c r="O7" s="10">
         <v>58.6</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="15">
         <v>1E-3</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="4" t="s">
         <v>28</v>
       </c>
@@ -853,20 +915,20 @@
       <c r="O8" s="10">
         <v>62.3</v>
       </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -884,8 +946,8 @@
       <c r="O9" s="10">
         <v>57.8</v>
       </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -906,8 +968,8 @@
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="4" t="s">
         <v>28</v>
       </c>
@@ -923,8 +985,8 @@
       <c r="O10" s="10">
         <v>60.8</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -945,13 +1007,13 @@
       <c r="F11" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -969,10 +1031,10 @@
       <c r="O11" s="10">
         <v>58</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="15">
         <v>1E-3</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -995,9 +1057,9 @@
       <c r="F12" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1013,8 +1075,8 @@
       <c r="O12" s="10">
         <v>57</v>
       </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -1035,9 +1097,9 @@
       <c r="F13" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14" t="s">
+      <c r="G13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -1055,8 +1117,8 @@
       <c r="O13" s="10">
         <v>57.7</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1077,9 +1139,9 @@
       <c r="F14" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1095,8 +1157,8 @@
       <c r="O14" s="10">
         <v>57.6</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -1146,12 +1208,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="Q3:Q6"/>
     <mergeCell ref="P3:P6"/>
@@ -1164,6 +1220,12 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1175,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03138617-1860-46F4-87D2-AEF8FCD61F8C}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="B2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1193,14 +1255,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -1354,10 +1416,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="15" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1383,8 +1445,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1406,16 +1468,16 @@
       <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -1454,8 +1516,8 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1495,10 +1557,10 @@
       <c r="F11" s="1">
         <v>2E-3</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="15" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -1542,8 +1604,8 @@
       <c r="F12" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1583,8 +1645,8 @@
       <c r="F13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
         <v>32</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -1626,8 +1688,8 @@
       <c r="F14" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1649,10 +1711,10 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="15" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -1676,8 +1738,8 @@
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1699,8 +1761,8 @@
       <c r="P16" s="16"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H17" s="14"/>
-      <c r="I17" s="14" t="s">
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -1724,8 +1786,8 @@
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="5" t="s">
         <v>27</v>
       </c>
@@ -1747,10 +1809,10 @@
       <c r="P18" s="16"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="15" t="s">
         <v>31</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -1770,8 +1832,8 @@
       </c>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="5" t="s">
         <v>27</v>
       </c>
@@ -1783,8 +1845,8 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H21" s="14"/>
-      <c r="I21" s="14" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="15" t="s">
         <v>32</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -1798,8 +1860,8 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1811,10 +1873,10 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="15" t="s">
         <v>31</v>
       </c>
       <c r="J23" s="5" t="s">
@@ -1834,8 +1896,8 @@
       </c>
     </row>
     <row r="24" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="5" t="s">
         <v>27</v>
       </c>
@@ -1847,8 +1909,8 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H25" s="14"/>
-      <c r="I25" s="14" t="s">
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
         <v>32</v>
       </c>
       <c r="J25" s="5" t="s">
@@ -1863,8 +1925,8 @@
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="5" t="s">
         <v>27</v>
       </c>
@@ -1884,6 +1946,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="H23:H26"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="I25:I26"/>
@@ -1897,12 +1965,6 @@
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1915,14 +1977,18 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="10" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="8" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="9.140625" style="17"/>
+    <col min="4" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="10" style="19" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="13" customWidth="1"/>
     <col min="9" max="13" width="9.140625" style="8"/>
     <col min="14" max="14" width="13.640625" style="8" customWidth="1"/>
     <col min="15" max="15" width="11" style="8" customWidth="1"/>
@@ -1936,22 +2002,22 @@
       <c r="B1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="8" t="s">
@@ -1980,34 +2046,55 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="C2" s="25">
+        <v>34.1406699457863</v>
+      </c>
+      <c r="D2" s="26">
+        <v>0.97943127015672105</v>
+      </c>
+      <c r="E2" s="27">
+        <v>3.6440260708331999E-2</v>
+      </c>
       <c r="F2" s="8">
         <v>50.9</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="20">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="13">
         <v>37.658000000000001</v>
       </c>
+      <c r="I2" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C3" s="25">
+        <v>41.131332833318297</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0.99540673034321103</v>
+      </c>
+      <c r="E3" s="27">
+        <v>9.5374379307031597E-3</v>
+      </c>
       <c r="F3" s="8">
         <v>43.8</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="13">
         <v>26.146999999999998</v>
       </c>
       <c r="I3" s="8">
@@ -2039,35 +2126,56 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8">
-        <v>42.7</v>
-      </c>
-      <c r="G4" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H4" s="8">
-        <v>555.79</v>
+      <c r="C4" s="25">
+        <v>42.133912448552699</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0.99497860225030499</v>
+      </c>
+      <c r="E4" s="27">
+        <v>5.4859998635947704E-3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="G4" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="13">
+        <v>753.56700000000001</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C5" s="17">
+        <v>44.184196019377602</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.99727072586752796</v>
+      </c>
+      <c r="E5" s="24">
+        <v>3.5654597450047701E-3</v>
+      </c>
       <c r="F5" s="8">
-        <v>50.7</v>
-      </c>
-      <c r="G5" s="8">
+        <v>52.6</v>
+      </c>
+      <c r="G5" s="19">
         <v>1E-3</v>
       </c>
-      <c r="H5" s="8">
-        <v>4.7709999999999999</v>
+      <c r="H5" s="13">
+        <v>3.6429999999999998</v>
       </c>
       <c r="I5" s="8">
         <v>128</v>
@@ -2098,34 +2206,55 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="C6" s="17">
+        <v>30.7470250170872</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.97993649766415702</v>
+      </c>
+      <c r="E6" s="24">
+        <v>3.4801792353391599E-2</v>
+      </c>
       <c r="F6" s="8">
         <v>47.4</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="13">
         <v>5.4850000000000003</v>
       </c>
+      <c r="I6" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C7" s="17">
+        <v>38.7317885018605</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.99286266327900696</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1.20124835520982E-2</v>
+      </c>
       <c r="F7" s="8">
         <v>44.1</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="13">
         <v>4.5819999999999999</v>
       </c>
       <c r="I7" s="8">
@@ -2154,34 +2283,55 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="C8" s="17">
+        <v>33.158572114178298</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.97948314085717303</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2.9640696942806199E-2</v>
+      </c>
       <c r="F8" s="8">
         <v>63.2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="19">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="13">
         <v>336.90899999999999</v>
       </c>
+      <c r="I8" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C9" s="17">
+        <v>40.874909504333601</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.98834850587343404</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1.2633149512112101E-2</v>
+      </c>
       <c r="F9" s="8">
         <v>59.5</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="19">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="13">
         <v>123.229</v>
       </c>
       <c r="I9" s="8">
@@ -2210,34 +2360,55 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="C10" s="17">
+        <v>45.8333308278198</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.99642067841548798</v>
+      </c>
+      <c r="E10" s="24">
+        <v>4.2988569475710297E-3</v>
+      </c>
       <c r="F10" s="8">
         <v>56.1</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="19">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="13">
         <v>8.6199999999999992</v>
       </c>
+      <c r="I10" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C11" s="17">
+        <v>45.343145588370596</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.99771953002305802</v>
+      </c>
+      <c r="E11" s="24">
+        <v>2.7124490588903401E-3</v>
+      </c>
       <c r="F11" s="8">
         <v>55.1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="19">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="13">
         <v>4.2450000000000001</v>
       </c>
       <c r="I11" s="8">
@@ -2266,34 +2437,55 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="A12" s="15">
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="C12" s="17">
+        <v>39.524474385581101</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.99516904639625303</v>
+      </c>
+      <c r="E12" s="24">
+        <v>7.6254252344369802E-3</v>
+      </c>
       <c r="F12" s="8">
         <v>65.8</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="19">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="13">
         <v>5.0039999999999996</v>
       </c>
+      <c r="I12" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C13" s="17">
+        <v>43.151977364069502</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0.99723126813253304</v>
+      </c>
+      <c r="E13" s="24">
+        <v>3.5901057999581099E-3</v>
+      </c>
       <c r="F13" s="8">
         <v>65.599999999999994</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="19">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="13">
         <v>1.7569999999999999</v>
       </c>
       <c r="I13" s="8">
@@ -2322,38 +2514,59 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+      <c r="A14" s="15">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="C14" s="17">
+        <v>39.301111453583196</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.99175108181000304</v>
+      </c>
+      <c r="E14" s="24">
+        <v>1.0968674905598099E-2</v>
+      </c>
       <c r="F14" s="8">
         <v>48.9</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="19">
         <v>1E-3</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="13">
         <v>934.89099999999996</v>
       </c>
+      <c r="I14" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C15" s="17">
+        <v>38.862894306181602</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.99198200059365904</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1.05567248538136E-2</v>
+      </c>
       <c r="F15" s="8">
-        <v>40.1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H15" s="8">
-        <v>5.0679999999999996</v>
+        <v>56.2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="H15" s="13">
+        <v>34.29</v>
       </c>
       <c r="I15" s="8">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="J15" s="8">
         <v>832</v>
@@ -2378,34 +2591,55 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+      <c r="A16" s="15">
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="C16" s="17">
+        <v>32.247544270145703</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0.95558136554483697</v>
+      </c>
+      <c r="E16" s="24">
+        <v>3.11497338116168E-2</v>
+      </c>
       <c r="F16" s="8">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="G16" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H16" s="8">
+        <v>49.4</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H16" s="13">
         <v>374.40199999999999</v>
       </c>
+      <c r="I16" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C17" s="17">
+        <v>31.186914629683901</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0.95544401288889103</v>
+      </c>
+      <c r="E17" s="24">
+        <v>2.9831640422344201E-2</v>
+      </c>
       <c r="F17" s="8">
-        <v>46.6</v>
-      </c>
-      <c r="G17" s="8">
+        <v>52.8</v>
+      </c>
+      <c r="G17" s="19">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="13">
         <v>26.620999999999999</v>
       </c>
       <c r="I17" s="8">
@@ -2452,32 +2686,435 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEF66FA-BA83-4676-A3F1-2DED21B1EBBD}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="9.140625" style="19"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
+    <col min="4" max="4" width="9.140625" style="21"/>
+    <col min="5" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="9.140625" style="17"/>
+    <col min="7" max="7" width="12.140625" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="11">
+        <v>32.247544270145703</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0.95558136554483697</v>
+      </c>
+      <c r="E2" s="22">
+        <v>3.11497338116168E-2</v>
+      </c>
+      <c r="F2" s="17">
+        <v>49.4</v>
+      </c>
+      <c r="G2" s="12">
+        <v>374.40199999999999</v>
+      </c>
+      <c r="H2" s="15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="19">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="11">
+        <v>31.908843584130601</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0.95406946894892397</v>
+      </c>
+      <c r="E3" s="22">
+        <v>3.3619385212659801E-2</v>
+      </c>
+      <c r="F3" s="17">
+        <v>52.8</v>
+      </c>
+      <c r="G3" s="15">
+        <v>26.620999999999999</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="B4" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C4" s="11">
+        <v>31.894308694971201</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.95406941066775197</v>
+      </c>
+      <c r="E4" s="22">
+        <v>3.35739776492118E-2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>52.9</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>31.8580875873213</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.95405469572816504</v>
+      </c>
+      <c r="E5" s="22">
+        <v>3.3534102141857099E-2</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>31.8137755733839</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.95402017062706801</v>
+      </c>
+      <c r="E6" s="22">
+        <v>3.3520329743623699E-2</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
         <v>2</v>
       </c>
+      <c r="B7" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>31.4457810126071</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.95508908080205901</v>
+      </c>
+      <c r="E7" s="22">
+        <v>3.0882928520441E-2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>31.186914629683901</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.95544401288889103</v>
+      </c>
+      <c r="E8" s="22">
+        <v>2.9831640422344201E-2</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>30.9981752632659</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.95555871157303995</v>
+      </c>
+      <c r="E9" s="22">
+        <v>2.9342008754611001E-2</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>31.186252002020801</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.95254548162822605</v>
+      </c>
+      <c r="E10" s="22">
+        <v>3.5280410200357402E-2</v>
+      </c>
+      <c r="F10" s="18">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="19">
+        <v>2E-3</v>
+      </c>
+      <c r="C11" s="11">
+        <v>30.968106561949799</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.95216147965072095</v>
+      </c>
+      <c r="E11" s="22">
+        <v>3.5581253468990298E-2</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>30.842695265949299</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.95197499156309295</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3.5637553781270898E-2</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="11">
+        <v>31.545868117014599</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.95453691582663003</v>
+      </c>
+      <c r="E13" s="22">
+        <v>3.2098963856696999E-2</v>
+      </c>
+      <c r="F13" s="18">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="C14" s="11">
+        <v>31.4181856891237</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.95468992736080904</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3.1595498323440503E-2</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>31.303203394590302</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.95479518091378202</v>
+      </c>
+      <c r="E15" s="22">
+        <v>3.12151797115802E-2</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>5</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="C16" s="11">
+        <v>31.387530673533298</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.95404988459413698</v>
+      </c>
+      <c r="E16" s="22">
+        <v>3.2747335731983102E-2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="C17" s="11">
+        <v>31.190292175889201</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.95404939810823597</v>
+      </c>
+      <c r="E17" s="22">
+        <v>3.2420944422483403E-2</v>
+      </c>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="C18" s="11">
+        <v>31.017184853632401</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0.95403429168499099</v>
+      </c>
+      <c r="E18" s="22">
+        <v>3.2197557389736099E-2</v>
+      </c>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>6</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="C19" s="11">
+        <v>31.882369858132201</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.95406255495754899</v>
+      </c>
+      <c r="E19" s="22">
+        <v>3.3563785254955202E-2</v>
+      </c>
+      <c r="F19" s="18">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="15"/>
+      <c r="B20" s="19">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C20" s="11">
+        <v>31.8646204609677</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0.95404622247025295</v>
+      </c>
+      <c r="E20" s="22">
+        <v>3.3556483685970299E-2</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19">
+        <v>2E-3</v>
+      </c>
+      <c r="C21" s="11">
+        <v>31.843460229431798</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.95402366661316795</v>
+      </c>
+      <c r="E21" s="22">
+        <v>3.3565022051334298E-2</v>
+      </c>
+      <c r="F21" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F4:F6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/capture/result.xlsx
+++ b/capture/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.CG_project\00.VulkanTutorial\capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF2BB1E-2669-4011-831D-A29F1460CE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399FB9CC-F620-495A-8D73-DF511E5E9F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,8 +246,8 @@
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="183" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="187" formatCode="0.000%"/>
+    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="180" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -344,37 +344,25 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -383,11 +371,23 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,14 +694,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -769,19 +769,19 @@
       <c r="F3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="25" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="25">
         <v>1E-3</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -804,13 +804,13 @@
       <c r="F4" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -831,15 +831,15 @@
       <c r="F5" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -860,19 +860,19 @@
       <c r="F6" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -890,16 +890,16 @@
       <c r="O7" s="10">
         <v>58.6</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="25">
         <v>1E-3</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="4" t="s">
         <v>28</v>
       </c>
@@ -915,20 +915,20 @@
       <c r="O8" s="10">
         <v>62.3</v>
       </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -946,8 +946,8 @@
       <c r="O9" s="10">
         <v>57.8</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -968,8 +968,8 @@
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="4" t="s">
         <v>28</v>
       </c>
@@ -985,8 +985,8 @@
       <c r="O10" s="10">
         <v>60.8</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1007,13 +1007,13 @@
       <c r="F11" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="25" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -1031,10 +1031,10 @@
       <c r="O11" s="10">
         <v>58</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="25">
         <v>1E-3</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="25" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1057,9 +1057,9 @@
       <c r="F12" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="G12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1075,8 +1075,8 @@
       <c r="O12" s="10">
         <v>57</v>
       </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -1097,9 +1097,9 @@
       <c r="F13" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15" t="s">
+      <c r="G13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -1117,8 +1117,8 @@
       <c r="O13" s="10">
         <v>57.7</v>
       </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1139,9 +1139,9 @@
       <c r="F14" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="G14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1157,8 +1157,8 @@
       <c r="O14" s="10">
         <v>57.6</v>
       </c>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -1208,6 +1208,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="Q3:Q6"/>
     <mergeCell ref="P3:P6"/>
@@ -1220,12 +1226,6 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1255,14 +1255,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -1416,10 +1416,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="25" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1440,13 +1440,13 @@
       <c r="O7" s="9">
         <v>0.01</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="27">
         <v>753.56700000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1465,19 +1465,19 @@
       <c r="O8" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P8" s="16"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -1498,7 +1498,7 @@
       <c r="O9" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="P9" s="16"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -1516,8 +1516,8 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="O10" s="9">
         <v>2E-3</v>
       </c>
-      <c r="P10" s="16"/>
+      <c r="P10" s="27"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1557,10 +1557,10 @@
       <c r="F11" s="1">
         <v>2E-3</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="25" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -1581,7 +1581,7 @@
       <c r="O11" s="9">
         <v>0.01</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="27">
         <v>3.6429999999999998</v>
       </c>
     </row>
@@ -1604,8 +1604,8 @@
       <c r="F12" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="O12" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P12" s="16"/>
+      <c r="P12" s="27"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -1645,8 +1645,8 @@
       <c r="F13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
+      <c r="H13" s="25"/>
+      <c r="I13" s="25" t="s">
         <v>32</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -1667,7 +1667,7 @@
       <c r="O13" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="P13" s="16"/>
+      <c r="P13" s="27"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1688,8 +1688,8 @@
       <c r="F14" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1708,13 +1708,13 @@
       <c r="O14" s="9">
         <v>2E-3</v>
       </c>
-      <c r="P14" s="16"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="25" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -1735,11 +1735,11 @@
       <c r="O15" s="9">
         <v>0.02</v>
       </c>
-      <c r="P15" s="16"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1758,11 +1758,11 @@
       <c r="O16" s="9">
         <v>1E-3</v>
       </c>
-      <c r="P16" s="16"/>
+      <c r="P16" s="27"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
+      <c r="H17" s="25"/>
+      <c r="I17" s="25" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -1783,11 +1783,11 @@
       <c r="O17" s="9">
         <v>2E-3</v>
       </c>
-      <c r="P17" s="16"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="5" t="s">
         <v>27</v>
       </c>
@@ -1806,13 +1806,13 @@
       <c r="O18" s="9">
         <v>1E-3</v>
       </c>
-      <c r="P18" s="16"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="25" t="s">
         <v>31</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -1832,8 +1832,8 @@
       </c>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="5" t="s">
         <v>27</v>
       </c>
@@ -1845,8 +1845,8 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H21" s="15"/>
-      <c r="I21" s="15" t="s">
+      <c r="H21" s="25"/>
+      <c r="I21" s="25" t="s">
         <v>32</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -1860,8 +1860,8 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1873,10 +1873,10 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="25" t="s">
         <v>31</v>
       </c>
       <c r="J23" s="5" t="s">
@@ -1896,8 +1896,8 @@
       </c>
     </row>
     <row r="24" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="5" t="s">
         <v>27</v>
       </c>
@@ -1909,8 +1909,8 @@
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H25" s="15"/>
-      <c r="I25" s="15" t="s">
+      <c r="H25" s="25"/>
+      <c r="I25" s="25" t="s">
         <v>32</v>
       </c>
       <c r="J25" s="5" t="s">
@@ -1925,8 +1925,8 @@
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="5" t="s">
         <v>27</v>
       </c>
@@ -1946,12 +1946,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:F9"/>
     <mergeCell ref="H23:H26"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="I25:I26"/>
@@ -1965,6 +1959,12 @@
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1977,17 +1977,17 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:I17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="9.140625" style="17"/>
-    <col min="4" max="4" width="9.140625" style="23"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="3" max="3" width="9.140625" style="14"/>
+    <col min="4" max="4" width="9.140625" style="19"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
     <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="10" style="19" customWidth="1"/>
+    <col min="7" max="7" width="10" style="15" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="13" customWidth="1"/>
     <col min="9" max="13" width="9.140625" style="8"/>
     <col min="14" max="14" width="13.640625" style="8" customWidth="1"/>
@@ -2002,19 +2002,19 @@
       <c r="B1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -2046,25 +2046,25 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+      <c r="A2" s="25">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="21">
         <v>34.1406699457863</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="22">
         <v>0.97943127015672105</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="23">
         <v>3.6440260708331999E-2</v>
       </c>
       <c r="F2" s="8">
         <v>50.9</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="16">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H2" s="13">
@@ -2075,23 +2075,23 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="21">
         <v>41.131332833318297</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <v>0.99540673034321103</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="23">
         <v>9.5374379307031597E-3</v>
       </c>
       <c r="F3" s="8">
         <v>43.8</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H3" s="13">
@@ -2126,25 +2126,25 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="21">
         <v>42.133912448552699</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>0.99497860225030499</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="23">
         <v>5.4859998635947704E-3</v>
       </c>
       <c r="F4" s="10">
         <v>64.900000000000006</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H4" s="13">
@@ -2155,23 +2155,23 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>44.184196019377602</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>0.99727072586752796</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>3.5654597450047701E-3</v>
       </c>
       <c r="F5" s="8">
         <v>52.6</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="15">
         <v>1E-3</v>
       </c>
       <c r="H5" s="13">
@@ -2206,25 +2206,25 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>30.7470250170872</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="19">
         <v>0.97993649766415702</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="20">
         <v>3.4801792353391599E-2</v>
       </c>
       <c r="F6" s="8">
         <v>47.4</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H6" s="13">
@@ -2235,23 +2235,23 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>38.7317885018605</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="19">
         <v>0.99286266327900696</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
         <v>1.20124835520982E-2</v>
       </c>
       <c r="F7" s="8">
         <v>44.1</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H7" s="13">
@@ -2283,25 +2283,25 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>33.158572114178298</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="19">
         <v>0.97948314085717303</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <v>2.9640696942806199E-2</v>
       </c>
       <c r="F8" s="8">
         <v>63.2</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="15">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H8" s="13">
@@ -2312,27 +2312,27 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>40.874909504333601</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="19">
         <v>0.98834850587343404</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="20">
         <v>1.2633149512112101E-2</v>
       </c>
       <c r="F9" s="8">
         <v>59.5</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="15">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H9" s="13">
-        <v>123.229</v>
+        <v>87.846999999999994</v>
       </c>
       <c r="I9" s="8">
         <v>512</v>
@@ -2360,25 +2360,25 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>45.8333308278198</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="19">
         <v>0.99642067841548798</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="20">
         <v>4.2988569475710297E-3</v>
       </c>
       <c r="F10" s="8">
         <v>56.1</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="15">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H10" s="13">
@@ -2389,23 +2389,23 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>45.343145588370596</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="19">
         <v>0.99771953002305802</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="20">
         <v>2.7124490588903401E-3</v>
       </c>
       <c r="F11" s="8">
         <v>55.1</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="15">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H11" s="13">
@@ -2437,25 +2437,25 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>39.524474385581101</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="19">
         <v>0.99516904639625303</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="20">
         <v>7.6254252344369802E-3</v>
       </c>
       <c r="F12" s="8">
         <v>65.8</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="15">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H12" s="13">
@@ -2466,23 +2466,23 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="14">
         <v>43.151977364069502</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="19">
         <v>0.99723126813253304</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="20">
         <v>3.5901057999581099E-3</v>
       </c>
       <c r="F13" s="8">
         <v>65.599999999999994</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="15">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H13" s="13">
@@ -2514,25 +2514,25 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="15">
+      <c r="A14" s="25">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>39.301111453583196</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="19">
         <v>0.99175108181000304</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="20">
         <v>1.0968674905598099E-2</v>
       </c>
       <c r="F14" s="8">
         <v>48.9</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="15">
         <v>1E-3</v>
       </c>
       <c r="H14" s="13">
@@ -2543,23 +2543,23 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="14">
         <v>38.862894306181602</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="19">
         <v>0.99198200059365904</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="20">
         <v>1.05567248538136E-2</v>
       </c>
       <c r="F15" s="8">
         <v>56.2</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="15">
         <v>1E-3</v>
       </c>
       <c r="H15" s="13">
@@ -2591,25 +2591,25 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="15">
+      <c r="A16" s="25">
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="14">
         <v>32.247544270145703</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="19">
         <v>0.95558136554483697</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="20">
         <v>3.11497338116168E-2</v>
       </c>
       <c r="F16" s="8">
         <v>49.4</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="15">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H16" s="13">
@@ -2620,23 +2620,23 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <v>31.186914629683901</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="19">
         <v>0.95544401288889103</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="20">
         <v>2.9831640422344201E-2</v>
       </c>
       <c r="F17" s="8">
         <v>52.8</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="15">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H17" s="13">
@@ -2695,11 +2695,11 @@
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="9.140625" style="19"/>
+    <col min="2" max="2" width="9.140625" style="15"/>
     <col min="3" max="3" width="9.140625" style="11"/>
-    <col min="4" max="4" width="9.140625" style="21"/>
-    <col min="5" max="5" width="9.140625" style="22"/>
-    <col min="6" max="6" width="9.140625" style="17"/>
+    <col min="4" max="4" width="9.140625" style="17"/>
+    <col min="5" max="5" width="9.140625" style="18"/>
+    <col min="6" max="6" width="9.140625" style="14"/>
     <col min="7" max="7" width="12.140625" style="12" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
@@ -2708,19 +2708,19 @@
       <c r="A1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="12" t="s">
@@ -2734,25 +2734,25 @@
       <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="11">
         <v>32.247544270145703</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="17">
         <v>0.95558136554483697</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>3.11497338116168E-2</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="14">
         <v>49.4</v>
       </c>
       <c r="G2" s="12">
         <v>374.40199999999999</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="25">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
@@ -2760,346 +2760,350 @@
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="15">
         <v>0</v>
       </c>
       <c r="C3" s="11">
         <v>31.908843584130601</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <v>0.95406946894892397</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="18">
         <v>3.3619385212659801E-2</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>52.8</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="25">
         <v>26.620999999999999</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>1E-3</v>
       </c>
       <c r="C4" s="11">
         <v>31.894308694971201</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>0.95406941066775197</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>3.35739776492118E-2</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="28">
         <v>52.9</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="19">
+      <c r="A5" s="25"/>
+      <c r="B5" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C5" s="11">
         <v>31.8580875873213</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <v>0.95405469572816504</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="18">
         <v>3.3534102141857099E-2</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19">
+      <c r="A6" s="25"/>
+      <c r="B6" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C6" s="11">
         <v>31.8137755733839</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>0.95402017062706801</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <v>3.3520329743623699E-2</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <v>0.1</v>
       </c>
       <c r="C7" s="11">
         <v>31.4457810126071</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>0.95508908080205901</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="18">
         <v>3.0882928520441E-2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="28">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19">
+      <c r="A8" s="25"/>
+      <c r="B8" s="15">
         <v>0.2</v>
       </c>
       <c r="C8" s="11">
         <v>31.186914629683901</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>0.95544401288889103</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <v>2.9831640422344201E-2</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19">
+      <c r="A9" s="25"/>
+      <c r="B9" s="15">
         <v>0.3</v>
       </c>
       <c r="C9" s="11">
         <v>30.9981752632659</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>0.95555871157303995</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="18">
         <v>2.9342008754611001E-2</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>1E-3</v>
       </c>
       <c r="C10" s="11">
         <v>31.186252002020801</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>0.95254548162822605</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="18">
         <v>3.5280410200357402E-2</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="28">
         <v>52.1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="19">
+      <c r="A11" s="25"/>
+      <c r="B11" s="15">
         <v>2E-3</v>
       </c>
       <c r="C11" s="11">
         <v>30.968106561949799</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>0.95216147965072095</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <v>3.5581253468990298E-2</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="19">
+      <c r="A12" s="25"/>
+      <c r="B12" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C12" s="11">
         <v>30.842695265949299</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>0.95197499156309295</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="18">
         <v>3.5637553781270898E-2</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="15">
+      <c r="A13" s="25">
         <v>4</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="15">
         <v>0.1</v>
       </c>
       <c r="C13" s="11">
         <v>31.545868117014599</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="17">
         <v>0.95453691582663003</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <v>3.2098963856696999E-2</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="28">
         <v>50.3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19">
+      <c r="A14" s="25"/>
+      <c r="B14" s="15">
         <v>0.15</v>
       </c>
       <c r="C14" s="11">
         <v>31.4181856891237</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>0.95468992736080904</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>3.1595498323440503E-2</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19">
+      <c r="A15" s="25"/>
+      <c r="B15" s="15">
         <v>0.2</v>
       </c>
       <c r="C15" s="11">
         <v>31.303203394590302</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <v>0.95479518091378202</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <v>3.12151797115802E-2</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="15">
+      <c r="A16" s="25">
         <v>5</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <v>0.04</v>
       </c>
       <c r="C16" s="11">
         <v>31.387530673533298</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>0.95404988459413698</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="18">
         <v>3.2747335731983102E-2</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="28">
         <v>50.1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19">
+      <c r="A17" s="25"/>
+      <c r="B17" s="15">
         <v>0.06</v>
       </c>
       <c r="C17" s="11">
         <v>31.190292175889201</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="17">
         <v>0.95404939810823597</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="18">
         <v>3.2420944422483403E-2</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="19">
+      <c r="A18" s="25"/>
+      <c r="B18" s="15">
         <v>0.08</v>
       </c>
       <c r="C18" s="11">
         <v>31.017184853632401</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>0.95403429168499099</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="18">
         <v>3.2197557389736099E-2</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="15">
+      <c r="A19" s="25">
         <v>6</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="15">
         <v>1E-3</v>
       </c>
       <c r="C19" s="11">
         <v>31.882369858132201</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="17">
         <v>0.95406255495754899</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="18">
         <v>3.3563785254955202E-2</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="28">
         <v>49.2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="19">
+      <c r="A20" s="25"/>
+      <c r="B20" s="15">
         <v>1.5E-3</v>
       </c>
       <c r="C20" s="11">
         <v>31.8646204609677</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <v>0.95404622247025295</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="18">
         <v>3.3556483685970299E-2</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19">
+      <c r="A21" s="25"/>
+      <c r="B21" s="15">
         <v>2E-3</v>
       </c>
       <c r="C21" s="11">
         <v>31.843460229431798</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="17">
         <v>0.95402366661316795</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="18">
         <v>3.3565022051334298E-2</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F4:F6"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="F16:F18"/>
@@ -3110,10 +3114,6 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
